--- a/DDS - NewApp - Justificante Transferencia Temporal_v3_20250409.xlsx
+++ b/DDS - NewApp - Justificante Transferencia Temporal_v3_20250409.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BancSabadell\NewApp_JustifTransTemp\Repos\API\api-payment-initiation-system-dds-v1\backend-standardization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88D213-9D35-430B-A4B3-B16BD67F3B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673954CE-01A4-4013-B8A5-5E32FAED0BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="327" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="327" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change Control" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="214">
   <si>
     <t>Version</t>
   </si>
@@ -550,9 +550,6 @@
     <t>BODY</t>
   </si>
   <si>
-    <t>STRING(DATE-TIME)</t>
-  </si>
-  <si>
     <t>Contract</t>
   </si>
   <si>
@@ -560,9 +557,6 @@
   </si>
   <si>
     <t>Entity code</t>
-  </si>
-  <si>
-    <t>Operation date</t>
   </si>
   <si>
     <t>Transfer office</t>
@@ -769,7 +763,7 @@
         <family val="2"/>
       </rPr>
       <t>OGA:07042025: ¿Esta fecha hace referencia al momento exacto en que se ejecuta la transferencia o al momento en que fue registrada o creada?
-GFT:09042025: se actualiza el dato</t>
+GFT:09042025: tal como hemos comentado por chat, se elimina el dato</t>
     </r>
   </si>
 </sst>
@@ -780,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-C0A]General"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1142,6 +1136,27 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2058,7 +2073,7 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2401,39 +2416,28 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2458,6 +2462,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2476,6 +2483,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2484,28 +2494,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="42" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2518,6 +2533,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="49" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4069,18 +4094,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="58" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
@@ -4111,13 +4136,13 @@
       <c r="D2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="132"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="45" t="s">
         <v>20</v>
       </c>
@@ -4149,15 +4174,15 @@
         <v>21</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
-      <c r="E3" s="133" t="s">
-        <v>185</v>
+      <c r="E3" s="127" t="s">
+        <v>183</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="132"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="79"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
@@ -4233,10 +4258,10 @@
       <c r="Z5" s="49"/>
     </row>
     <row r="6" spans="1:26" s="58" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="125"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="45" t="s">
         <v>24</v>
       </c>
@@ -4265,10 +4290,10 @@
       <c r="Z6" s="49"/>
     </row>
     <row r="7" spans="1:26" s="58" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="127"/>
+      <c r="B7" s="118"/>
       <c r="C7" s="68" t="s">
         <v>25</v>
       </c>
@@ -4353,18 +4378,18 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
@@ -4389,17 +4414,17 @@
       <c r="B11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="135" t="s">
+      <c r="D11" s="125"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="45" t="s">
         <v>20</v>
       </c>
@@ -4427,17 +4452,17 @@
       <c r="B12" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="138"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140" t="s">
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="142"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
       <c r="J12" s="48"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49"/>
@@ -4463,17 +4488,17 @@
       <c r="B13" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140" t="s">
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="142"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="48"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49"/>
@@ -4499,17 +4524,17 @@
       <c r="B14" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="142"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
       <c r="J14" s="48"/>
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
@@ -4535,17 +4560,17 @@
       <c r="B15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="C15" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140" t="s">
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="142"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
       <c r="J15" s="48"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
@@ -4571,17 +4596,17 @@
       <c r="B16" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="138"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140" t="s">
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="142"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
       <c r="J16" s="48"/>
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
@@ -4657,18 +4682,18 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" s="58" customFormat="1" ht="36" customHeight="1">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
       <c r="M19" s="49"/>
@@ -5412,16 +5437,16 @@
       <c r="Z37" s="49"/>
     </row>
     <row r="38" spans="1:26" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
+      <c r="A38" s="132"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
       <c r="K38" s="49"/>
       <c r="L38" s="49"/>
       <c r="M38" s="49"/>
@@ -5440,16 +5465,16 @@
       <c r="Z38" s="49"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5468,16 +5493,16 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A40" s="118"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5496,18 +5521,18 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41" spans="1:26" ht="50.25" customHeight="1">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5532,20 +5557,20 @@
       <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="123"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="139"/>
       <c r="G42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="122" t="s">
+      <c r="H42" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5570,20 +5595,20 @@
       <c r="B43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="113" t="s">
+      <c r="C43" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="111"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="123"/>
       <c r="G43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="114" t="s">
+      <c r="H43" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="9" t="s">
@@ -5614,20 +5639,20 @@
       <c r="B44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="111"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="123"/>
       <c r="G44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="109" t="s">
+      <c r="H44" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="11">
@@ -5658,20 +5683,20 @@
       <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="111"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="123"/>
       <c r="G45" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="109" t="s">
+      <c r="H45" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="11">
@@ -5702,20 +5727,20 @@
       <c r="B46" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="112" t="s">
+      <c r="C46" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="111"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
       <c r="G46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="109" t="s">
+      <c r="H46" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="11">
@@ -5746,20 +5771,20 @@
       <c r="B47" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="109" t="s">
+      <c r="C47" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="111"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123"/>
       <c r="G47" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="109" t="s">
+      <c r="H47" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="11">
@@ -5790,20 +5815,20 @@
       <c r="B48" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="111"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="123"/>
       <c r="G48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="109" t="s">
+      <c r="H48" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="11">
@@ -5834,20 +5859,20 @@
       <c r="B49" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="109" t="s">
+      <c r="C49" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="111"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="123"/>
       <c r="G49" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H49" s="109" t="s">
+      <c r="H49" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="11">
@@ -5878,20 +5903,20 @@
       <c r="B50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="109" t="s">
+      <c r="C50" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="123"/>
       <c r="G50" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="109" t="s">
+      <c r="H50" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="110"/>
-      <c r="J50" s="110"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="11">
@@ -5922,20 +5947,20 @@
       <c r="B51" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="109" t="s">
+      <c r="C51" s="121" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="111"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="123"/>
       <c r="G51" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="109" t="s">
+      <c r="H51" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="11">
@@ -5966,20 +5991,20 @@
       <c r="B52" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="109" t="s">
+      <c r="C52" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="111"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
       <c r="G52" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="109" t="s">
+      <c r="H52" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="11">
@@ -6010,20 +6035,20 @@
       <c r="B53" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="109" t="s">
+      <c r="C53" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="111"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="123"/>
       <c r="G53" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="109" t="s">
+      <c r="H53" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="11">
@@ -6054,20 +6079,20 @@
       <c r="B54" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="109" t="s">
+      <c r="C54" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="110"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="111"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
       <c r="G54" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="109" t="s">
+      <c r="H54" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I54" s="110"/>
-      <c r="J54" s="110"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="11">
@@ -6098,20 +6123,20 @@
       <c r="B55" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="109" t="s">
+      <c r="C55" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="111"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="123"/>
       <c r="G55" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H55" s="109" t="s">
+      <c r="H55" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="110"/>
-      <c r="J55" s="110"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="11">
@@ -6142,20 +6167,20 @@
       <c r="B56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="109" t="s">
+      <c r="C56" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="110"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="111"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="123"/>
       <c r="G56" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="109" t="s">
+      <c r="H56" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I56" s="110"/>
-      <c r="J56" s="110"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="11">
@@ -6186,20 +6211,20 @@
       <c r="B57" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="109" t="s">
+      <c r="C57" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="110"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="111"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="123"/>
       <c r="G57" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="109" t="s">
+      <c r="H57" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="110"/>
-      <c r="J57" s="110"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="11">
@@ -6230,20 +6255,20 @@
       <c r="B58" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="112" t="s">
+      <c r="C58" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="110"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="111"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="123"/>
       <c r="G58" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="109" t="s">
+      <c r="H58" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I58" s="110"/>
-      <c r="J58" s="110"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="11">
@@ -6274,20 +6299,20 @@
       <c r="B59" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="110"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="111"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="123"/>
       <c r="G59" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H59" s="109" t="s">
+      <c r="H59" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="11">
@@ -6318,20 +6343,20 @@
       <c r="B60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="109" t="s">
+      <c r="C60" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="110"/>
-      <c r="E60" s="110"/>
-      <c r="F60" s="111"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="123"/>
       <c r="G60" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="109" t="s">
+      <c r="H60" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I60" s="110"/>
-      <c r="J60" s="110"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="11">
@@ -6362,20 +6387,20 @@
       <c r="B61" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="112" t="s">
+      <c r="C61" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="111"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="123"/>
       <c r="G61" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H61" s="109" t="s">
+      <c r="H61" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I61" s="110"/>
-      <c r="J61" s="110"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="11">
@@ -6406,20 +6431,20 @@
       <c r="B62" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="109" t="s">
+      <c r="C62" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="111"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="123"/>
       <c r="G62" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="109" t="s">
+      <c r="H62" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -32760,12 +32785,49 @@
   </sheetData>
   <sheetProtection password="C457" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="65">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C58:F58"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:J1"/>
@@ -32782,49 +32844,12 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <conditionalFormatting sqref="B34:H34">
     <cfRule type="expression" dxfId="15" priority="1">
@@ -32873,8 +32898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -32934,19 +32959,19 @@
         <v>131</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E3" s="95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -32963,44 +32988,44 @@
         <v>132</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="92" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H4" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="140.25">
+    <row r="5" spans="1:9" ht="153">
       <c r="A5" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="149" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>181</v>
+      <c r="D5" s="151" t="s">
+        <v>179</v>
       </c>
-      <c r="E5" s="106" t="s">
-        <v>201</v>
+      <c r="E5" s="152" t="s">
+        <v>199</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="149" t="s">
         <v>163</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I5" s="18"/>
     </row>
@@ -33009,19 +33034,19 @@
         <v>131</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F6" s="100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -33038,17 +33063,17 @@
         <v>132</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="92" t="s">
         <v>162</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I7" s="18"/>
     </row>
@@ -33063,17 +33088,17 @@
         <v>132</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="94" t="s">
         <v>154</v>
       </c>
       <c r="F8" s="92" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I8" s="18"/>
     </row>
@@ -33082,23 +33107,23 @@
         <v>131</v>
       </c>
       <c r="B9" s="92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>132</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="94" t="s">
         <v>155</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I9" s="18"/>
     </row>
@@ -33113,17 +33138,17 @@
         <v>132</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G10" s="99"/>
       <c r="H10" s="95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -33138,17 +33163,17 @@
         <v>132</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="102" t="s">
         <v>156</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="95" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I11" s="18"/>
     </row>
@@ -34159,10 +34184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y902"/>
+  <dimension ref="A1:Y901"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -34185,11 +34210,11 @@
         <v>165</v>
       </c>
       <c r="B1" s="145" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="147" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" s="148"/>
       <c r="F1" s="148"/>
@@ -34198,7 +34223,7 @@
       <c r="I1" s="148"/>
       <c r="J1" s="148"/>
       <c r="K1" s="78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
@@ -34264,15 +34289,15 @@
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="22"/>
       <c r="E3" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>142</v>
@@ -34282,7 +34307,7 @@
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="18"/>
@@ -34319,7 +34344,7 @@
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="18"/>
@@ -34340,7 +34365,7 @@
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>166</v>
@@ -34356,7 +34381,7 @@
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="18"/>
@@ -34377,7 +34402,7 @@
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>166</v>
@@ -34386,14 +34411,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="37"/>
       <c r="F6" s="22" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>143</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="23" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="18"/>
@@ -34414,7 +34439,7 @@
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>166</v>
@@ -34426,11 +34451,11 @@
         <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="23" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="18"/>
@@ -34451,7 +34476,7 @@
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>166</v>
@@ -34488,7 +34513,7 @@
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>166</v>
@@ -34504,7 +34529,7 @@
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="23" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="18"/>
@@ -34525,7 +34550,7 @@
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>166</v>
@@ -34541,7 +34566,7 @@
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="23" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="18"/>
@@ -34560,27 +34585,16 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>166</v>
-      </c>
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="34"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="22"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="27"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -34597,16 +34611,23 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" thickBot="1">
+    <row r="12" spans="1:25" ht="141.75" thickTop="1" thickBot="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="22"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="29"/>
+      <c r="J12" s="107" t="s">
+        <v>211</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -34623,23 +34644,16 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
     </row>
-    <row r="13" spans="1:25" ht="141.75" thickTop="1" thickBot="1">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="107" t="s">
-        <v>213</v>
-      </c>
+      <c r="J13" s="24"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -34656,16 +34670,21 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="14" spans="1:25" ht="27.75" thickTop="1" thickBot="1">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -34682,21 +34701,19 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
     </row>
-    <row r="15" spans="1:25" ht="27.75" thickTop="1" thickBot="1">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" thickTop="1">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="38" t="s">
-        <v>145</v>
+      <c r="C15" s="34" t="s">
+        <v>146</v>
       </c>
-      <c r="D15" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="25"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -34713,18 +34730,20 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" thickTop="1">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="31"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -34746,7 +34765,7 @@
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="31"/>
@@ -34754,7 +34773,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="18"/>
@@ -34777,15 +34796,15 @@
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="31"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
-        <v>150</v>
+      <c r="I18" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="18"/>
@@ -34808,16 +34827,14 @@
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="31"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="26" t="s">
-        <v>152</v>
-      </c>
+      <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -34836,18 +34853,16 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -58651,33 +58666,6 @@
       <c r="X901" s="18"/>
       <c r="Y901" s="18"/>
     </row>
-    <row r="902" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A902" s="18"/>
-      <c r="B902" s="18"/>
-      <c r="C902" s="39"/>
-      <c r="D902" s="18"/>
-      <c r="E902" s="32"/>
-      <c r="F902" s="18"/>
-      <c r="G902" s="18"/>
-      <c r="H902" s="18"/>
-      <c r="I902" s="18"/>
-      <c r="J902" s="18"/>
-      <c r="K902" s="18"/>
-      <c r="L902" s="18"/>
-      <c r="M902" s="18"/>
-      <c r="N902" s="18"/>
-      <c r="O902" s="18"/>
-      <c r="P902" s="18"/>
-      <c r="Q902" s="18"/>
-      <c r="R902" s="18"/>
-      <c r="S902" s="18"/>
-      <c r="T902" s="18"/>
-      <c r="U902" s="18"/>
-      <c r="V902" s="18"/>
-      <c r="W902" s="18"/>
-      <c r="X902" s="18"/>
-      <c r="Y902" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
@@ -58700,7 +58688,7 @@
       <formula>"GET"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H12 G13:H13">
+  <conditionalFormatting sqref="G12:H12 H3:H11">
     <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
@@ -58718,16 +58706,16 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"GET,POST,PUT,PATCH,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F14 F3:F12" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F13 F3:F11" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"STRING,OBJECT,ARRAY,STRING(DATE),STRING(ENUM),STRING(DATE-TIME),NUMBER(DOUBLE),INTEGER(INT32),INTEGER(INT64),ARRAY,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"RESPONSE OK(200),RESPONSE CREATED(201),RESPONSE ACCEPTED(202),RESPONSE NO CONTENT(204)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:H14 G3:H12" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:H13 G3:H11" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"NO,YES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B11" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"QUERY,PATH PARAM,HEADER,BODY"</formula1>
     </dataValidation>
   </dataValidations>
